--- a/recommendApi/media/cvsDbData1.xlsx
+++ b/recommendApi/media/cvsDbData1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1660,6 +1660,21 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>6391c91c695c9b70a0bd8835</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>game development unitygame development unity</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/recommendApi/media/cvsDbData1.xlsx
+++ b/recommendApi/media/cvsDbData1.xlsx
@@ -1666,12 +1666,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6391c91c695c9b70a0bd8835</t>
+          <t>6391d83460c5c272169dac4d</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>game development unitygame development unity</t>
+          <t>nodejs nodejs node jsnodejs nodejs node js</t>
         </is>
       </c>
     </row>

--- a/recommendApi/media/cvsDbData1.xlsx
+++ b/recommendApi/media/cvsDbData1.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lập_trình_viên công_ty cổ_phần phần_mềm quảng_ích tiếp_cận dự_án điển_hình cổ_điển aspnet net core tiếp_cận một_vài template dựng sẵn blazor webassembly blazor server thực_sự có_thể custom template thực_tập_sinh công_ty_tnhh công_nghệ truyền_thông iit làm_quen aspnet mvc aspnet api linq rèn_luyện html js css jquerynetc sql frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
+          <t>lập_trình_viên công_ty cổ_phần phần_mềm quảng_ích tiếp_cận dự_án điển_hình cổ_điển aspnet net core tiếp_cận một_vài template dựng sẵn blazor webassembly blazor server thực_sự có_thể custom template thực_tập_sinh công_ty_tnhh công_nghệ truyền_thông iit làm_quen aspnet mvc aspnet api linq rèn_luyện html js css jquery netc sql frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>phần_mềm quản_lý quán cà_phê công_nghệ sử_dụng java swingbackend quản_trị hệ_thống qatest quản_lý chất_lượng qaqc giải_quyết vấn_đề làm_việc kĩ_năng thuyết_trình</t>
+          <t>phần_mềm quản_lý quán cà_phê công_nghệ sử_dụng java swing backend quản_trị hệ_thống qatest quản_lý chất_lượng qaqc giải_quyết vấn_đề làm_việc kĩ_năng thuyết_trình</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>experiences lập_trình_viên backend eg tech group lập_trình_viên back end eg tech group ứng_dụng công_nghệ nodejs express nest js swagger cơ_sở dữ_liệu sql servenodejs sql server javascript</t>
+          <t>experiences lập_trình_viên backend eg tech group lập_trình_viên back end eg tech group ứng_dụng công_nghệ nodejs express nest js swagger cơ_sở dữ_liệu sql serve nodejs sql server javascript</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nhân_viên lập_trình php công_ty_tnhh phong dự_án php framwork laravel phát_triển hệ_thống phần_mềm nội_bộ công_ty nhân_viên lập_trình php công_ty_tnhh phúc dự_án php phát_triển ứng_dụng một_số phần_mềm nội bộnetc sql php frontend htmlcss java</t>
+          <t>nhân_viên lập_trình php công_ty_tnhh phong dự_án php framwork laravel phát_triển hệ_thống phần_mềm nội_bộ công_ty nhân_viên lập_trình php công_ty_tnhh phúc dự_án php phát_triển ứng_dụng một_số phần_mềm nội_bộ netc sql php frontend htmlcss java</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>unity game developer diffcat ui animation fix bug code clean code game artist glass egg digital media limited model car exterior forza projectnetc cc thiết_kế game thiết_kế</t>
+          <t>unity game developer diffcat ui animation fix bug code clean code game artist glass egg digital media limited model car exterior forza project netc cc thiết_kế game thiết_kế</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rpa developer ykk việt nam update phần_mềm yêu_cầu user xử_lý lỗi dữ_liệu hệ_thống công_ty nhân_viên erp công_ty_tnhh hệ_thống thông_tin fpt fpt is chi_nhánh tp minh vai tròtesterjava sql oracle triển_khai phần_mềm</t>
+          <t>rpa developer ykk việt nam update phần_mềm yêu_cầu user xử_lý lỗi dữ_liệu hệ_thống công_ty nhân_viên erp công_ty_tnhh hệ_thống thông_tin fpt fpt is chi_nhánh tp minh vai tròtester java sql oracle triển_khai phần_mềm</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nhân_viên công_ty tư_nhân tiếp_nhận thông_tin tư quản_lý lập_trình yêu_cầu khách_hàng ngôn_ngữ lập_trình phpadobe photoshop thiết_kế php làm_việc</t>
+          <t>nhân_viên công_ty tư_nhân tiếp_nhận thông_tin tư quản_lý lập_trình yêu_cầu khách_hàng ngôn_ngữ lập_trình php adobe photoshop thiết_kế php làm_việc</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>thực_tập_sinh allnet gmbh php developer sql fullstack developer ixenso ag sap eclipse phpquản dự_án it sql oracle php sap frontend htmlcss data warehouse java quản_lý thời_gian thuyết_trình kế_hoạch làm_việc xây_dựng quan_hệ giao_tiếp</t>
+          <t>thực_tập_sinh allnet gmbh php developer sql fullstack developer ixenso ag sap eclipse php quản_lý dự_án it sql oracle php sap frontend htmlcss data warehouse java quản_lý thời_gian thuyết_trình kế_hoạch làm_việc xây_dựng quan_hệ giao_tiếp</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>lập_trình_viên công_ty_tnhh phát_triển phần_mềm top software phát_triển hệ_thống erp công_ty hệ_thống quản_lý nhân_sự chấm lương quản_lý dự_án hệ_thống trò_chơi lợi_nhuận chức_năng nhân_viên website công_ty vilas quản_lý website công_ty website kols định_hướng phát_triển hệ_thống tynetc sql php google adsadwords</t>
+          <t>lập_trình_viên công_ty_tnhh phát_triển phần_mềm top software phát_triển hệ_thống erp công_ty hệ_thống quản_lý nhân_sự chấm lương quản_lý dự_án hệ_thống trò_chơi lợi_nhuận chức_năng nhân_viên website công_ty vilas quản_lý website công_ty website kols định_hướng phát_triển hệ_thống công_ty netc sql php google adsadwords</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>phát_triển di_động flutter xây_dựng ứng_dụng s living flutter ứng_dụng công_nghệ iot điều_khiển thiết_bị nhà_nhà phát_triển di_động flutter stech vn xây_dựng ứng_dụng truyền_thông xã_hội flutterflutter ios android quản_lý thời_gian giải_quyết vấn_đề phân_tích</t>
+          <t>phát_triển di_động flutter xây_dựng ứng_dụng s living flutter ứng_dụng công_nghệ iot điều_khiển thiết_bị nhà_nhà phát_triển di_động flutter stech vn xây_dựng ứng_dụng truyền_thông xã_hội flutter flutter ios android quản_lý thời_gian giải_quyết vấn_đề phân_tích</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>nhân_viên công_ty cổ_phần edoctor dự_án nhân_viên mô_tả quản_lý hành_chính công_ty công_nghệ reactjs reduxswrreactqueryboostrap reactstrap git dự_án bác_sĩ chat gọi video bác_sỹ quản_lý_lịch hẹn đồng_thời quản_lý hỏi_đáp bác_sĩ công_nghệ reactjs api context formik socketio stringee sass reactstrap service worker git developer transcosmos technology art product media sspnodejs adonisjs reactjs mysql redisquản triển_khai phần_mềm javascript giải_quyết vấn_đề làm_việc</t>
+          <t>nhân_viên công_ty cổ_phần edoctor dự_án nhân_viên mô_tả quản_lý hành_chính công_ty công_nghệ reactjs reduxswrreactqueryboostrap reactstrap git dự_án bác_sĩ chat gọi video bác_sỹ quản_lý_lịch hẹn đồng_thời quản_lý hỏi_đáp bác_sĩ công_nghệ reactjs api context formik socketio stringee sass reactstrap service worker git developer transcosmos technology art product media sspnodejs adonisjs reactjs mysql redis quản_trị triển_khai phần_mềm javascript giải_quyết vấn_đề làm_việc</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>lập_trình_viên thiết_kế công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng lập_trình_viên công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng làm_việc htmlcssjsfrontend htmlcss cntt phần_mềm làm_việc thuyết_trình giải_quyết vấn_đề</t>
+          <t>lập_trình_viên thiết_kế công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng lập_trình_viên công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng làm_việc htmlcssjs frontend htmlcss cntt phần_mềm làm_việc thuyết_trình giải_quyết vấn_đề</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lập_trình_viên fpt software đà_nẵng nhiệm_vụ cấu_hình triển_khai bảo_trì hệ_thống máy_tính máy văn_phòng hệ_thống tổng_đài điện_thoại hệ_thống camera giám_sát thiết_lập quản_lý thống thống chấm công_ty quản_lý database phần_mềm chấm quản_lý hệ_thống thông_báo ca làm_việc hệ_thống báo_động công_ty quản_lý hỗ_trợ sử_dụng phần_mềm mes bộ_phận nhà_máy thực_hiện yêu_cầu đề_xuất giải_pháp công_nghệ phục_vụ công_tác quản lýnetc adobe after effect hòa năng_động kế_hoạch làm_việc</t>
+          <t>lập_trình_viên fpt software đà_nẵng nhiệm_vụ cấu_hình triển_khai bảo_trì hệ_thống máy_tính máy văn_phòng hệ_thống tổng_đài điện_thoại hệ_thống camera giám_sát thiết_lập quản_lý thống thống chấm công_ty quản_lý database phần_mềm chấm quản_lý hệ_thống thông_báo ca làm_việc hệ_thống báo_động công_ty quản_lý hỗ_trợ sử_dụng phần_mềm mes bộ_phận nhà_máy thực_hiện yêu_cầu đề_xuất giải_pháp công_nghệ phục_vụ công_tác quản_lý netc adobe after effect hòa năng_động kế_hoạch làm_việc</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>internfresher developer công_ty_tnhh hybrid technologies việt nam tham_gia dự_án outsourcing khách_hàng nhật_bản cập_nhật phát_triển api web service triển_khai laravel docker tham_gia phát_triển giao_diện sử_dụng htmlcssjs jquery vuejs báo_cáo review source code coding standards error handling code comments decisionbackend javascript lập_trình mobile cntt phần_mềm php làm_việc</t>
+          <t>internfresher developer công_ty_tnhh hybrid technologies việt nam tham_gia dự_án outsourcing khách_hàng nhật_bản cập_nhật phát_triển api web service triển_khai laravel docker tham_gia phát_triển giao_diện sử_dụng htmlcssjs jquery vuejs báo_cáo review source code coding standards error handling code comments decision backend javascript lập_trình mobile cntt phần_mềm php làm_việc</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>marketing design công_ty thạch_thiết_kế sản_phẩm hình_ảnh poster ấn_phẩm truyền_thông nội_dung đăng website trang page facebook công_ty quản_trị page website hỗ_trợ tư_vấn giải_đáp thắc_mắc page front end developer minerva technology solutions xây_dựng admin website for scb bankfrontend htmlcss javascript adobe photoshop làm_việc quản_lý thời_gian hòa</t>
+          <t>marketing design công_ty thạch_thiết_kế sản_phẩm hình_ảnh poster ấn_phẩm truyền_thông nội_dung đăng website trang page facebook công_ty quản_trị page website hỗ_trợ tư_vấn giải_đáp thắc_mắc page front end developer minerva technology solutions xây_dựng admin website for scb bank frontend htmlcss javascript adobe photoshop làm_việc quản_lý thời_gian hòa</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>fresher javascript fpt software thiết_kế web framework angularfrontend htmlcss sql javascript hòa năng_động kế_hoạch làm_việc</t>
+          <t>fresher javascript fpt software thiết_kế web framework angular frontend htmlcss sql javascript hòa năng_động kế_hoạch làm_việc</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>lập_trình python freelancer trực_tiếp lập_trình_viên xây_dựng phần_mềm hàngpython cc ruby sql thuyết_trình làm_việc giải_quyết vấn_đề quản_lý thời_gian hòa</t>
+          <t>lập_trình python freelancer trực_tiếp lập_trình_viên xây_dựng phần_mềm khách_hàng python cc ruby sql thuyết_trình làm_việc giải_quyết vấn_đề quản_lý thời_gian hòa</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>xây_dựng website hàng thương_mại điện_tử reactjsredux xây_dựng trang_web thương_mại điện_tử xây_dựng hệ_thống quản_lý admin xây_dựng website client ant design scss react js redux toolkit xây_dựng hệ_thống quản_lý big data xây_dựng hệ_thống ngân_hàng sumika xây_dựng website client html scss reactjs redux xử_lý nghiệp_vụ xây hệ_thống vận_hành ngân hàngreactjs redux</t>
+          <t>xây_dựng website hàng thương_mại điện_tử reactjsredux xây_dựng trang_web thương_mại điện_tử xây_dựng hệ_thống quản_lý admin xây_dựng website client ant design scss react js redux toolkit xây_dựng hệ_thống quản_lý big data xây_dựng hệ_thống ngân_hàng sumika xây_dựng website client html scss reactjs redux xử_lý nghiệp_vụ xây hệ_thống vận_hành ngân_hàng reactjs redux</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>học_viên cybersoft academy back end nodejs learn backend nodejs reactjs developer tham_gia xây_dựng cms cabxfrontend htmlcss javascript backend nodejs sql làm_việc phân_tích quản_lý thời_gian</t>
+          <t>học_viên cybersoft academy back end nodejs learn backend nodejs reactjs developer tham_gia xây_dựng cms cabx frontend htmlcss javascript backend nodejs sql làm_việc phân_tích quản_lý thời_gian</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>lập_trình php educa group query api fix bug thiết_kế db laravel developper công_ty cổ_phần công_nghệ gvn tham_gia phát_triển website laravel frameworkjava sql php javascript frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
+          <t>lập_trình php educa group query api fix bug thiết_kế db laravel developper công_ty cổ_phần công_nghệ gvn tham_gia phát_triển website laravel framework java sql php javascript frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>kỹ_thuật_viên lập_trình_viên công_ty_cp phần_mềm kế_toán thuế việt namvmsoft hỗ_trợ lập_trình kiểm_thử dự_án thực_tế thiết_kế giao_diện phát_triển chức_năng công_nghệ sử_dụng mvc sql server xây_dựng dự_án cá_nhân phần_mềm nhà_hàng công_nghệ sử_dụng winform entity framework linq sql serverphp frontend htmlcss</t>
+          <t>kỹ_thuật_viên lập_trình_viên công_ty_cp phần_mềm kế_toán thuế việt namvmsoft hỗ_trợ lập_trình kiểm_thử dự_án thực_tế thiết_kế giao_diện phát_triển chức_năng công_nghệ sử_dụng mvc sql server xây_dựng dự_án cá_nhân phần_mềm nhà_hàng công_nghệ sử_dụng winform entity framework linq sql server php frontend htmlcss</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>công_ty octa lập_trình_viên frontend backend tham_gia phát_triển sản_phẩm mai điện_tử thảo_luận đội_ngũ backend thiết_kế apiit support frontend htmlcss php uiux java javascript sql làm_việc thuyết_trình giao_tiếp</t>
+          <t>công_ty octa lập_trình_viên frontend backend tham_gia phát_triển sản_phẩm mai điện_tử thảo_luận đội_ngũ backend thiết_kế api it support frontend htmlcss php uiux java javascript sql làm_việc thuyết_trình giao_tiếp</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>intern frontend group tham_gia xây_dựng website công_ty sử_dụng reactjs materialui chuyển_đổi figma htmlcss chỉnh_sửa cập_nhật giao_diện website yêu_cầu hàngfrontend htmlcss javascript quản_lý thời_gian giao_tiếp làm_việc giải_quyết vấn_đề kế_hoạch</t>
+          <t>intern frontend group tham_gia xây_dựng website công_ty sử_dụng reactjs materialui chuyển_đổi figma htmlcss chỉnh_sửa cập_nhật giao_diện website yêu_cầu khách_hàng frontend htmlcss javascript quản_lý thời_gian giao_tiếp làm_việc giải_quyết vấn_đề kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>side project website to chat simple dự_án cá_nhân đơn_giản sử_dụng mvc template handlebars kết_hợp socket io công_nghệ nodejs socket io jquery postgresqlnodejs postgresql</t>
+          <t>side project website to chat simple dự_án cá_nhân đơn_giản sử_dụng mvc template handlebars kết_hợp socket io công_nghệ nodejs socket io jquery postgresql nodejs postgresql</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>php developer công_ty cổ_phần tổng_hợp việt nhật vinicorp tham_gia xây_dựng phát_triển ứng_dụng web công_ty sử_dụng php mysql framework cake php công_ty cổ_phần thương_mại hảo seoer visual basic c lập_trình tool giúp tự_động hóa một_số quá_trình seo giúp hiệu_quả công_việc quản_lý hệ_thống website công_ty đảm_bảo website hoạt_động ổn_định thiết_kế chỉnh_sửa hình_ảnh sản_phẩm logo bannernội dung quản_trị frontend htmlcss php javascript</t>
+          <t>php developer công_ty cổ_phần tổng_hợp việt nhật vinicorp tham_gia xây_dựng phát_triển ứng_dụng web công_ty sử_dụng php mysql framework cake php công_ty cổ_phần thương_mại hảo seoer visual basic c lập_trình tool giúp tự_động hóa một_số quá_trình seo giúp hiệu_quả công_việc quản_lý hệ_thống website công_ty đảm_bảo website hoạt_động ổn_định thiết_kế chỉnh_sửa hình_ảnh sản_phẩm logo banner nội_dung quản_trị frontend htmlcss php javascript</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>lập_trình_viên công_ty cổ_phần tài_chính việt phân_tích thiết_kế hệ_thống lập_trình php framework laravel ci thiết_kế báo_cáo tài_chính hệ_thống vận_hành quản_lý hệ_thống fintech tài_chính git base quản_lý contact hợp_đồng công_thức thanh_toán toán lãi đầu_tư khách_hàng kết_nối cổng thanh_toán thanh_toán tự_động đầu_tư giải_ngân khách_hàng hỗ_trợ phòng_ban liên_quan liên_kết đối_tác hợp_tác bảo_hiểm cổng thanh_toán lập_trình_viên công_ty apaxenglish phân_tích thiết_kế hệ_thống lập_trình php framework laravel vuejs nodejs thiết_kế báo_cáo hệ_thống crm sử_dụng stress test cache index tối_ưu lozic code hệ_thống vận_hành ổn_định giật lác hỗ_trợ khách_hàng sử_dụng hệ thốngkỹ năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
+          <t>lập_trình_viên công_ty cổ_phần tài_chính việt phân_tích thiết_kế hệ_thống lập_trình php framework laravel ci thiết_kế báo_cáo tài_chính hệ_thống vận_hành quản_lý hệ_thống fintech tài_chính git base quản_lý contact hợp_đồng công_thức thanh_toán toán lãi đầu_tư khách_hàng kết_nối cổng thanh_toán thanh_toán tự_động đầu_tư giải_ngân khách_hàng hỗ_trợ phòng_ban liên_quan liên_kết đối_tác hợp_tác bảo_hiểm cổng thanh_toán lập_trình_viên công_ty apaxenglish phân_tích thiết_kế hệ_thống lập_trình php framework laravel vuejs nodejs thiết_kế báo_cáo hệ_thống crm sử_dụng stress test cache index tối_ưu lozic code hệ_thống vận_hành ổn_định giật lác hỗ_trợ khách_hàng sử_dụng hệ_thống kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>mern stack project web chăm_sóc sức_khỏe sử_dụng reactjs nodejs express mongodb chủ_yếu reactjs giao_diện một_số xác_thực jwt aws cloud foundation tham_gia khóa học cloud computingchủ yếu triển_khai trang_web aws google cloud lambda buckets dịch_vụ khácreactjs nodejs kế_hoạch</t>
+          <t>mern stack project web chăm_sóc sức_khỏe sử_dụng reactjs nodejs express mongodb chủ_yếu reactjs giao_diện một_số xác_thực jwt aws cloud foundation tham_gia khóa học cloud computingchủ yếu triển_khai trang_web aws google cloud lambda buckets dịch_vụ reactjs nodejs kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>mobile developer fpt software co ltd tham_gia dự_án react native triển_khai app quản_lý kho xăng ứng_dụng giao_tiếp chủ_khách_sạn nhà_nghỉ homestay xây_dựng thiết_kế mã giao_diện tính_năng sạch mã tối_ưu_hóa hiệu_suất nghiên_cứu ứng_dụng công_nghệ dự_án tham_gia viết code mẫu công_ty tích_hợp sdk công_ty làm_việc quy_trình phát_triển agilescrum thành_tích kỹ_năng lập_trình mobile fpt software tiếp_nhận thông_tin trực_tiếp khách_hàng bàn_luận team phát_triển sản_phẩm quản_lý trực_tiếp pmios android quản_lý thời_gian năng_động phân_tích làm_việc</t>
+          <t>mobile developer fpt software co ltd tham_gia dự_án react native triển_khai app quản_lý kho xăng ứng_dụng giao_tiếp chủ_khách_sạn nhà_nghỉ homestay xây_dựng thiết_kế mã giao_diện tính_năng sạch mã tối_ưu_hóa hiệu_suất nghiên_cứu ứng_dụng công_nghệ dự_án tham_gia viết code mẫu công_ty tích_hợp sdk công_ty làm_việc quy_trình phát_triển agilescrum thành_tích kỹ_năng lập_trình mobile fpt software tiếp_nhận thông_tin trực_tiếp khách_hàng bàn_luận team phát_triển sản_phẩm quản_lý trực_tiếp pm ios android quản_lý thời_gian năng_động phân_tích làm_việc</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>mobile developer cty ptpm quang bảo_trì nâng_cấp dự_án react native cũ tham_gia phát_triển sản_phẩm outsource tyjavascript ios android</t>
+          <t>mobile developer cty ptpm quang bảo_trì nâng_cấp dự_án react native cũ tham_gia phát_triển sản_phẩm outsource công_ty javascript ios android</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>full stack developer nfq asia xây_dựng website frontend backend công_nghệ symfony aws react redux cloudflare vv selfprojects nhận_dạng hoa sử_dụng thần_kinh tích chính_quy_hóa học tăng_cường dữ_liệu mini batch độ dốc tổng_hợp tối_đa dự_đoán cà_phê long short mô_hình bộ_nhớ hạn phân_rã tỷ_lệ học_tập mini batch độ dốc chuẩn_hóa phát_triển python ferrous design freelancer xử_lý quản_lý dữ_liệu email mục_đích khoa_học liệufullstack nodejs</t>
+          <t>full stack developer nfq asia xây_dựng website frontend backend công_nghệ symfony aws react redux cloudflare vv selfprojects nhận_dạng hoa sử_dụng thần_kinh tích chính_quy_hóa học tăng_cường dữ_liệu mini batch độ dốc tổng_hợp tối_đa dự_đoán cà_phê long short mô_hình bộ_nhớ hạn phân_rã tỷ_lệ học_tập mini batch độ dốc chuẩn_hóa phát_triển python ferrous design freelancer xử_lý quản_lý dữ_liệu email mục_đích khoa_học dữ_liệu fullstack nodejs</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>weather prediction developer biometrics project thu_thập dữ_liệu api web xử_lý dữ_liệu đào_tạo dữ_liệu một_số mô_hình máy họcquản dự_án it netc java python</t>
+          <t>weather prediction developer biometrics project thu_thập dữ_liệu api web xử_lý dữ_liệu đào_tạo dữ_liệu một_số mô_hình máy học quản_lý dự_án it netc java python</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>data analyst mb bank sql developer bravosql triển_khai phần_mềm data warehouse cntt phần_mềm</t>
+          <t>data analyst mb bank sql developer bravo sql triển_khai phần_mềm data warehouse cntt phần_mềm</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>thực_tập_sinh lập_trình_viên python cty_tnhh phần_mềm biwoco thông_tin nhà_đất trang bất_động_sản lưu database mysql api tìm_kiếm fastapi clean code pythonpython javascript</t>
+          <t>thực_tập_sinh lập_trình_viên python cty_tnhh phần_mềm biwoco thông_tin nhà_đất trang bất_động_sản lưu database mysql api tìm_kiếm fastapi clean code python python javascript</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>teacher assistant zalo associate data scientist associate data scientist xây_dựng hệ_thống ner cạnh_tranh sản_phẩm thương_mại xây_dựng phân_loại nội_dung khai_thác dữ_liệu sở_thích software engineering intern opswat vietnam phát_triển tính_năng dự_án deep cdr xây_dựng phát_hiện macro độc_hại phân_loại tệp pdfsql python netc aspnet trợ_giảng ngoại_ngữ</t>
+          <t>teacher assistant zalo associate data scientist associate data scientist xây_dựng hệ_thống ner cạnh_tranh sản_phẩm thương_mại xây_dựng phân_loại nội_dung khai_thác dữ_liệu sở_thích software engineering intern opswat vietnam phát_triển tính_năng dự_án deep cdr xây_dựng phát_hiện macro độc_hại phân_loại tệp pdf sql python netc aspnet trợ_giảng ngoại_ngữ</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>qa automation tester tma solutions thiết_kế thực_hiện trường_hợp thử_nghiệm thông_số kỹ_thuật theo_dõi quản_lý vòng đời đềlỗi hệ_thống theo_dõi thiết_kế thực_hiện kiểm_tra tự_động dựa trường_hợp kiểm_tra cải thiệncập nhật trường_hợp thử_nghiệm hiệu_quả độ tin_cậy cộng_tác phát_triển sản_phẩm cung_cấp phản_hồi hướng_dẫn thiết_lập chiến_lược nghiệmqatest sql nghiên_cứu thị_trường data analytics java netc</t>
+          <t>qa automation tester tma solutions thiết_kế thực_hiện trường_hợp thử_nghiệm thông_số kỹ_thuật theo_dõi quản_lý vòng đời đềlỗi hệ_thống theo_dõi thiết_kế thực_hiện kiểm_tra tự_động dựa trường_hợp kiểm_tra cải thiệncập nhật trường_hợp thử_nghiệm hiệu_quả độ tin_cậy cộng_tác phát_triển sản_phẩm cung_cấp phản_hồi hướng_dẫn thiết_lập chiến_lược thử_nghiệm qatest sql nghiên_cứu thị_trường data analytics java netc</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>nhân_viên lập_trình frontend ngân_hà tech kinh_nghiệm làm_việc yii frameworkbackend php frontend htmlcss qatest javascript sql làm_việc giải_quyết vấn_đề hòa</t>
+          <t>nhân_viên lập_trình frontend ngân_hà tech kinh_nghiệm làm_việc yii framework backend php frontend htmlcss qatest javascript sql làm_việc giải_quyết vấn_đề hòa</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>node js nodejsnodejs nodejs</t>
+          <t>node js nodejs nodejs nodejs</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>nodejs nodejs node jsnodejs nodejs node js</t>
+          <t>nodejs nodejs node js nodejs nodejs node js</t>
         </is>
       </c>
     </row>

--- a/recommendApi/media/cvsDbData1.xlsx
+++ b/recommendApi/media/cvsDbData1.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lập_trình_viên công_ty cổ_phần phần_mềm quảng_ích tiếp_cận dự_án điển_hình cổ_điển aspnet net core tiếp_cận một_vài template dựng sẵn blazor webassembly blazor server thực_sự có_thể custom template thực_tập_sinh công_ty_tnhh công_nghệ truyền_thông iit làm_quen aspnet mvc aspnet api linq rèn_luyện html js css jquery netc sql frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
+          <t>lập_trình_viên công_ty cổ_phần phần_mềm quảng_ích tiếp_cận dự_án điển_hình cổ_điển aspnet net core tiếp_cận một_vài template dựng sẵn blazor webassembly blazor server thực_sự có_thể custom template thực_tập_sinh công_ty_tnhh công_nghệ truyền_thông iit làm_quen aspnet mvc aspnet api linq rèn_luyện html js css jquery netc sql frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa netc sql frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>khóa học fresher tester công_ty data design việt_nam thực_tập_sinh wordpress tham_gia xây_dựng site wordpress yêu_cầu khóa học blog tin_tức hàng chỉnh_sửa giao_diện website css tìm_hiểu sử_dụng elementor công_việc hướng_dẫn công_việc xây_dựng site lms moodle qatest php</t>
+          <t>khóa học fresher tester công_ty data design việt_nam thực_tập_sinh wordpress tham_gia xây_dựng site wordpress yêu_cầu khóa học blog tin_tức hàng chỉnh_sửa giao_diện website css tìm_hiểu sử_dụng elementor công_việc hướng_dẫn công_việc xây_dựng site lms moodle qatest php qatest php</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>thực_tập_sinh công_ty_tnhh công_nghệ truyền_thông iit làm_quen aspnet mvc aspnet api linq rèn_luyện html js css jquery netc sql frontend htmlcss văn_phòng</t>
+          <t>thực_tập_sinh công_ty_tnhh công_nghệ truyền_thông iit làm_quen aspnet mvc aspnet api linq rèn_luyện html js css jquery netc sql frontend htmlcss văn_phòng netc sql frontend htmlcss văn_phòng</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>phần_mềm quản_lý quán cà_phê công_nghệ sử_dụng java swing backend quản_trị hệ_thống qatest quản_lý chất_lượng qaqc giải_quyết vấn_đề làm_việc kĩ_năng thuyết_trình</t>
+          <t>phần_mềm quản_lý quán cà_phê công_nghệ sử_dụng java swing backend quản_trị hệ_thống qatest quản_lý chất_lượng qaqc giải_quyết vấn_đề làm_việc kĩ_năng thuyết_trình backend quản_trị hệ_thống qatest quản_lý chất_lượng qaqc giải_quyết vấn_đề làm_việc kĩ_năng thuyết_trình</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>python developer intern agilsun co quản_lý cơ_sở dữ_liệu khách_hàng giao_diện python html css odoo openerp python phân_tích quản_lý thời_gian hòa giải_quyết vấn_đề làm_việc</t>
+          <t>python developer intern agilsun co quản_lý cơ_sở dữ_liệu khách_hàng giao_diện python html css odoo openerp python phân_tích quản_lý thời_gian hòa giải_quyết vấn_đề làm_việc python phân_tích quản_lý thời_gian hòa giải_quyết vấn_đề làm_việc</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>experiences lập_trình_viên backend eg tech group lập_trình_viên back end eg tech group ứng_dụng công_nghệ nodejs express nest js swagger cơ_sở dữ_liệu sql serve nodejs sql server javascript</t>
+          <t>experiences lập_trình_viên backend eg tech group lập_trình_viên back end eg tech group ứng_dụng công_nghệ nodejs express nest js swagger cơ_sở dữ_liệu sql serve nodejs sql server javascript nodejs sql server javascript</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>lập_trình_viên outsource freelancer project php laravel cc php trợ_giảng javascript làm_việc</t>
+          <t>lập_trình_viên outsource freelancer project php laravel cc php trợ_giảng javascript làm_việc cc php trợ_giảng javascript làm_việc</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nhân_viên lập_trình php công_ty_tnhh phong dự_án php framwork laravel phát_triển hệ_thống phần_mềm nội_bộ công_ty nhân_viên lập_trình php công_ty_tnhh phúc dự_án php phát_triển ứng_dụng một_số phần_mềm nội_bộ netc sql php frontend htmlcss java</t>
+          <t>nhân_viên lập_trình php công_ty_tnhh phong dự_án php framwork laravel phát_triển hệ_thống phần_mềm nội_bộ công_ty nhân_viên lập_trình php công_ty_tnhh phúc dự_án php phát_triển ứng_dụng một_số phần_mềm nội_bộ netc sql php frontend htmlcss java netc sql php frontend htmlcss java</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>unity game developer diffcat ui animation fix bug code clean code game artist glass egg digital media limited model car exterior forza project netc cc thiết_kế game thiết_kế</t>
+          <t>unity game developer diffcat ui animation fix bug code clean code game artist glass egg digital media limited model car exterior forza project netc cc thiết_kế game thiết_kế netc cc thiết_kế game thiết_kế</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rpa developer ykk việt nam update phần_mềm yêu_cầu user xử_lý lỗi dữ_liệu hệ_thống công_ty nhân_viên erp công_ty_tnhh hệ_thống thông_tin fpt fpt is chi_nhánh tp minh vai tròtester java sql oracle triển_khai phần_mềm</t>
+          <t>rpa developer ykk việt nam update phần_mềm yêu_cầu user xử_lý lỗi dữ_liệu hệ_thống công_ty nhân_viên erp công_ty_tnhh hệ_thống thông_tin fpt fpt is chi_nhánh tp minh vai tròtester java sql oracle triển_khai phần_mềm java sql oracle triển_khai phần_mềm</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>freelancer teamwork yêu_cầu khách_hàng lập_trình phần_mềm dựa ngôn_ngữ c winform net framework xây_dựng giao_diện winform c aspnet mvc cơ_sở dữ_liệu sql servertsql trigger transaction procedure thống_kê báo_cáo phần_mềm quản ly quán cà_phê quản_lý nhập kho giàydép hàng thủ_công xây_dựng tool tự_động kiểm_tra xử_lý dữ_liệu yêu_cầu file excel csv cập_nhật server thiết_kế logo banner name card khách_hàng photoshop sen sanctuary joint stock company quản_trị website open cart khắc_phục sự_cố vấn_đề hệ_thống triển_khai phần_mềm netc adobe photoshop aspnet tự_động hóa dựng phimhiệu ứng video cntt phần_mềm it helpdesk oracle sql quản_lý tin_học văn_phòng giao_tiếp giải_quyết vấn_đề làm_việc phân_tích hòa kế_hoạch</t>
+          <t>freelancer teamwork yêu_cầu khách_hàng lập_trình phần_mềm dựa ngôn_ngữ c winform net framework xây_dựng giao_diện winform c aspnet mvc cơ_sở dữ_liệu sql servertsql trigger transaction procedure thống_kê báo_cáo phần_mềm quản ly quán cà_phê quản_lý nhập kho giàydép hàng thủ_công xây_dựng tool tự_động kiểm_tra xử_lý dữ_liệu yêu_cầu file excel csv cập_nhật server thiết_kế logo banner name card khách_hàng photoshop sen sanctuary joint stock company quản_trị website open cart khắc_phục sự_cố vấn_đề hệ_thống triển_khai phần_mềm netc adobe photoshop aspnet tự_động hóa dựng phimhiệu ứng video cntt phần_mềm it helpdesk oracle sql quản_lý tin_học văn_phòng giao_tiếp giải_quyết vấn_đề làm_việc phân_tích hòa kế_hoạch triển_khai phần_mềm netc adobe photoshop aspnet tự_động hóa dựng phimhiệu ứng video cntt phần_mềm it helpdesk oracle sql quản_lý tin_học văn_phòng giao_tiếp giải_quyết vấn_đề làm_việc phân_tích hòa kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nhân_viên công_ty tư_nhân tiếp_nhận thông_tin tư quản_lý lập_trình yêu_cầu khách_hàng ngôn_ngữ lập_trình php adobe photoshop thiết_kế php làm_việc</t>
+          <t>nhân_viên công_ty tư_nhân tiếp_nhận thông_tin tư quản_lý lập_trình yêu_cầu khách_hàng ngôn_ngữ lập_trình php adobe photoshop thiết_kế php làm_việc adobe photoshop thiết_kế php làm_việc</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>thực_tập_sinh allnet gmbh php developer sql fullstack developer ixenso ag sap eclipse php quản_lý dự_án it sql oracle php sap frontend htmlcss data warehouse java quản_lý thời_gian thuyết_trình kế_hoạch làm_việc xây_dựng quan_hệ giao_tiếp</t>
+          <t>thực_tập_sinh allnet gmbh php developer sql fullstack developer ixenso ag sap eclipse php quản_lý dự_án it sql oracle php sap frontend htmlcss data warehouse java quản_lý thời_gian thuyết_trình kế_hoạch làm_việc xây_dựng quan_hệ giao_tiếp_quản_lý dự_án it sql oracle php sap frontend htmlcss data warehouse java quản_lý thời_gian thuyết_trình kế_hoạch làm_việc xây_dựng quan_hệ giao_tiếp</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>lập_trình_viên công_ty_tnhh phát_triển phần_mềm top software phát_triển hệ_thống erp công_ty hệ_thống quản_lý nhân_sự chấm lương quản_lý dự_án hệ_thống trò_chơi lợi_nhuận chức_năng nhân_viên website công_ty vilas quản_lý website công_ty website kols định_hướng phát_triển hệ_thống công_ty netc sql php google adsadwords</t>
+          <t>lập_trình_viên công_ty_tnhh phát_triển phần_mềm top software phát_triển hệ_thống erp công_ty hệ_thống quản_lý nhân_sự chấm lương quản_lý dự_án hệ_thống trò_chơi lợi_nhuận chức_năng nhân_viên website công_ty vilas quản_lý website công_ty website kols định_hướng phát_triển hệ_thống công_ty netc sql php google adsadwords netc sql php google adsadwords</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>phát_triển di_động flutter xây_dựng ứng_dụng s living flutter ứng_dụng công_nghệ iot điều_khiển thiết_bị nhà_nhà phát_triển di_động flutter stech vn xây_dựng ứng_dụng truyền_thông xã_hội flutter flutter ios android quản_lý thời_gian giải_quyết vấn_đề phân_tích</t>
+          <t>phát_triển di_động flutter xây_dựng ứng_dụng s living flutter ứng_dụng công_nghệ iot điều_khiển thiết_bị nhà_nhà phát_triển di_động flutter stech vn xây_dựng ứng_dụng truyền_thông xã_hội flutter flutter ios android quản_lý thời_gian giải_quyết vấn_đề phân_tích flutter ios android quản_lý thời_gian giải_quyết vấn_đề phân_tích</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>lập_trình_viên reactjs thực_tập công_ty cổ_phần làm_việc reactjs javascript nodejs cntt phần_mềm</t>
+          <t>lập_trình_viên reactjs thực_tập công_ty cổ_phần làm_việc reactjs javascript nodejs cntt phần_mềm javascript nodejs cntt phần_mềm</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>nhân_viên công_ty cổ_phần edoctor dự_án nhân_viên mô_tả quản_lý hành_chính công_ty công_nghệ reactjs reduxswrreactqueryboostrap reactstrap git dự_án bác_sĩ chat gọi video bác_sỹ quản_lý_lịch hẹn đồng_thời quản_lý hỏi_đáp bác_sĩ công_nghệ reactjs api context formik socketio stringee sass reactstrap service worker git developer transcosmos technology art product media sspnodejs adonisjs reactjs mysql redis quản_trị triển_khai phần_mềm javascript giải_quyết vấn_đề làm_việc</t>
+          <t>nhân_viên công_ty cổ_phần edoctor dự_án nhân_viên mô_tả quản_lý hành_chính công_ty công_nghệ reactjs reduxswrreactqueryboostrap reactstrap git dự_án bác_sĩ chat gọi video bác_sỹ quản_lý_lịch hẹn đồng_thời quản_lý hỏi_đáp bác_sĩ công_nghệ reactjs api context formik socketio stringee sass reactstrap service worker git developer transcosmos technology art product media sspnodejs adonisjs reactjs mysql redis quản_trị triển_khai phần_mềm javascript giải_quyết vấn_đề làm_việc quản_trị triển_khai phần_mềm javascript giải_quyết vấn_đề làm_việc</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>lập_trình_viên thiết_kế công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng lập_trình_viên công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng làm_việc htmlcssjs frontend htmlcss cntt phần_mềm làm_việc thuyết_trình giải_quyết vấn_đề</t>
+          <t>lập_trình_viên thiết_kế công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng lập_trình_viên công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng làm_việc htmlcssjs frontend htmlcss cntt phần_mềm làm_việc thuyết_trình giải_quyết vấn_đề frontend htmlcss cntt phần_mềm làm_việc thuyết_trình giải_quyết vấn_đề</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lập_trình_viên fpt software đà_nẵng nhiệm_vụ cấu_hình triển_khai bảo_trì hệ_thống máy_tính máy văn_phòng hệ_thống tổng_đài điện_thoại hệ_thống camera giám_sát thiết_lập quản_lý thống thống chấm công_ty quản_lý database phần_mềm chấm quản_lý hệ_thống thông_báo ca làm_việc hệ_thống báo_động công_ty quản_lý hỗ_trợ sử_dụng phần_mềm mes bộ_phận nhà_máy thực_hiện yêu_cầu đề_xuất giải_pháp công_nghệ phục_vụ công_tác quản_lý netc adobe after effect hòa năng_động kế_hoạch làm_việc</t>
+          <t>lập_trình_viên fpt software đà_nẵng nhiệm_vụ cấu_hình triển_khai bảo_trì hệ_thống máy_tính máy văn_phòng hệ_thống tổng_đài điện_thoại hệ_thống camera giám_sát thiết_lập quản_lý thống thống chấm công_ty quản_lý database phần_mềm chấm quản_lý hệ_thống thông_báo ca làm_việc hệ_thống báo_động công_ty quản_lý hỗ_trợ sử_dụng phần_mềm mes bộ_phận nhà_máy thực_hiện yêu_cầu đề_xuất giải_pháp công_nghệ phục_vụ công_tác quản_lý netc adobe after effect hòa năng_động kế_hoạch làm_việc netc adobe after effect hòa năng_động kế_hoạch làm_việc</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>lập_trình_viên frontendreact js công_ty cổ_phần startup itp phát_triển tính_năng fix bug hướng_dẫn trưởng chuyển_đổi giao_diện website hoàn_chỉnh file thiết_kế psd lập_trình_viên front end react js dự_án tham_gia_công_ty itp group dự_án_mạng xã_hội tham_gia skill php htmlscssreactredux jquery frontend htmlcss javascript làm_việc thuyết_trình giải_quyết vấn_đề</t>
+          <t>lập_trình_viên frontendreact js công_ty cổ_phần startup itp phát_triển tính_năng fix bug hướng_dẫn trưởng chuyển_đổi giao_diện website hoàn_chỉnh file thiết_kế psd lập_trình_viên front end react js dự_án tham_gia_công_ty itp group dự_án_mạng xã_hội tham_gia skill php htmlscssreactredux jquery frontend htmlcss javascript làm_việc thuyết_trình giải_quyết vấn_đề frontend htmlcss javascript làm_việc thuyết_trình giải_quyết vấn_đề</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>internfresher developer công_ty_tnhh hybrid technologies việt nam tham_gia dự_án outsourcing khách_hàng nhật_bản cập_nhật phát_triển api web service triển_khai laravel docker tham_gia phát_triển giao_diện sử_dụng htmlcssjs jquery vuejs báo_cáo review source code coding standards error handling code comments decision backend javascript lập_trình mobile cntt phần_mềm php làm_việc</t>
+          <t>internfresher developer công_ty_tnhh hybrid technologies việt nam tham_gia dự_án outsourcing khách_hàng nhật_bản cập_nhật phát_triển api web service triển_khai laravel docker tham_gia phát_triển giao_diện sử_dụng htmlcssjs jquery vuejs báo_cáo review source code coding standards error handling code comments decision backend javascript lập_trình mobile cntt phần_mềm php làm_việc backend javascript lập_trình mobile cntt phần_mềm php làm_việc</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>developer dự_án dự_đoán sự_cố động_cơ máy_bay thu_thập phân_tích dữ_liệu xây_dựng mô_hình hồi dự_báo hoạt_động động_cơ xây_dựng mô_hình phân_loại nhị_phân đánh_giá hiệu_suất xây_dựng mô_hình phân_loại đa lớp đánh_giá hiệu_quả công_việc phân_tích tình_trạng động_cơ dự_đoán thời_gian hỏng_hóc động_cơ tương_lai phát_triển máy học tma solution thu_thập dữ_liệu hệ_thống máy phân_tích dữ_liệu xây_dựng mô_hình_học máy đánh_giá hoạt_động máy_móc bảo_trì dự_đoán máy_móc python machine learning cc</t>
+          <t>developer dự_án dự_đoán sự_cố động_cơ máy_bay thu_thập phân_tích dữ_liệu xây_dựng mô_hình hồi dự_báo hoạt_động động_cơ xây_dựng mô_hình phân_loại nhị_phân đánh_giá hiệu_suất xây_dựng mô_hình phân_loại đa lớp đánh_giá hiệu_quả công_việc phân_tích tình_trạng động_cơ dự_đoán thời_gian hỏng_hóc động_cơ tương_lai phát_triển máy học tma solution thu_thập dữ_liệu hệ_thống máy phân_tích dữ_liệu xây_dựng mô_hình_học máy đánh_giá hoạt_động máy_móc bảo_trì dự_đoán máy_móc python machine learning cc python machine learning cc</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>marketing design công_ty thạch_thiết_kế sản_phẩm hình_ảnh poster ấn_phẩm truyền_thông nội_dung đăng website trang page facebook công_ty quản_trị page website hỗ_trợ tư_vấn giải_đáp thắc_mắc page front end developer minerva technology solutions xây_dựng admin website for scb bank frontend htmlcss javascript adobe photoshop làm_việc quản_lý thời_gian hòa</t>
+          <t>marketing design công_ty thạch_thiết_kế sản_phẩm hình_ảnh poster ấn_phẩm truyền_thông nội_dung đăng website trang page facebook công_ty quản_trị page website hỗ_trợ tư_vấn giải_đáp thắc_mắc page front end developer minerva technology solutions xây_dựng admin website for scb bank frontend htmlcss javascript adobe photoshop làm_việc quản_lý thời_gian hòa frontend htmlcss javascript adobe photoshop làm_việc quản_lý thời_gian hòa</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>lập_trình_viên frontend phát_triển dự_án ứng_dụng hts react native phát_triển triển_khai xây_dựng phát_triển web admin hts sử_dụng angular phát_triển triển_khai build renovation technology lập_trình_viên frontend dự_án phát_triển end tham_gia phát_triển web sử_dụng cms angular quản_lý khách_hàng phát_triển ứng_dụng mobile react native hiển_thị dữ_liệu máy pos biểu_đồ nhân_viên bàn quản_lý_lịch_trình phát_triển ứng_dụng di_động ionic tìm_hiểu giải_quyết vấn_đề nhanh_chóng rõ_ràng frontend htmlcss javascript</t>
+          <t>lập_trình_viên frontend phát_triển dự_án ứng_dụng hts react native phát_triển triển_khai xây_dựng phát_triển web admin hts sử_dụng angular phát_triển triển_khai build renovation technology lập_trình_viên frontend dự_án phát_triển end tham_gia phát_triển web sử_dụng cms angular quản_lý khách_hàng phát_triển ứng_dụng mobile react native hiển_thị dữ_liệu máy pos biểu_đồ nhân_viên bàn quản_lý_lịch_trình phát_triển ứng_dụng di_động ionic tìm_hiểu giải_quyết vấn_đề nhanh_chóng rõ_ràng frontend htmlcss javascript frontend htmlcss javascript</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>lập_trình_viên game space shooter công_việc viết code kiểm lỗi thiết_kế màn sử_dụng unity visual studio_code ngôn_ngữ c link website project lập_trình_viên website shop hàng công_việc viết code kiểm lỗi thiết_kế giao_diện sử_dụng visual studio_xampp ngôn_ngữ php html css netc php frontend htmlcss giao_tiếp làm_việc</t>
+          <t>lập_trình_viên game space shooter công_việc viết code kiểm lỗi thiết_kế màn sử_dụng unity visual studio_code ngôn_ngữ c link website project lập_trình_viên website shop hàng công_việc viết code kiểm lỗi thiết_kế giao_diện sử_dụng visual studio_xampp ngôn_ngữ php html css netc php frontend htmlcss giao_tiếp làm_việc netc php frontend htmlcss giao_tiếp làm_việc</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>freelancer chain store management fujinet company trang quản_lý sản_phẩm dựa trang quản_lý nhân_viên sẵn sử_dụng webform json javascript razor linq sql server fresher fpt software ho minh august javascript sql server c</t>
+          <t>freelancer chain store management fujinet company trang quản_lý sản_phẩm dựa trang quản_lý nhân_viên sẵn sử_dụng webform json javascript razor linq sql server fresher fpt software ho minh august javascript sql server c javascript sql server c</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>lập_trình_viên teaml công_ty cổ_phần lifetek quản_lý team lập_trình lập_trình hệ_thống quản_lý hàng lập_trình_viên công_ty_tnhh phần_mềm làm_việc team dự_án khách_hàng nhật xã_hội sàn tiền ảo backend sql netc frontend htmlcss php frontend htmlcss sql oracle it support quản_lý thời_gian làm_việc hòa đồng_phân_tích</t>
+          <t>lập_trình_viên teaml công_ty cổ_phần lifetek quản_lý team lập_trình lập_trình hệ_thống quản_lý hàng lập_trình_viên công_ty_tnhh phần_mềm làm_việc team dự_án khách_hàng nhật xã_hội sàn tiền ảo backend sql netc frontend htmlcss php frontend htmlcss sql oracle it support quản_lý thời_gian làm_việc hòa đồng_phân_tích backend sql netc frontend htmlcss php frontend htmlcss sql oracle it support quản_lý thời_gian làm_việc hòa đồng_phân_tích</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>developer công_ty_tnhh mytour việt_nam lập_trình phát_triển chức_năng sản_phẩm product mytour công_ty golf developer công_ty cổ_phần ppc lập_trình phát_triển chức_năng sản_phẩm product igolf công_ty java javascript netc</t>
+          <t>developer công_ty_tnhh mytour việt_nam lập_trình phát_triển chức_năng sản_phẩm product mytour công_ty golf developer công_ty cổ_phần ppc lập_trình phát_triển chức_năng sản_phẩm product igolf công_ty java javascript netc java javascript netc</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>hệ_thống quản_lý_tài_nguyên_phát_triển tính_năng hạn_ngạch viết unittest chạy thử_nghiệm tích_hợp_phần_mềm sử_dụng ngôn_ngữ khuôn khổkhung python django htmlcssjavascript công_cụ inject ui trách_nhiệm phát_triển tính_năng dựa yêu_cầu tài_liệu thiết_kế kh sửa lỗi cập_nhật tính_năng dựa phản_hồi khách_hàng chạy trường_hợp thử_nghiệm bằng_chứng ngôn_ngữ công_nghệ sử_dụng c net wpf htmlcssjavascript visualstudio python frontend htmlcss netc javascript giải_quyết vấn_đề làm_việc hòa đồng_phân_tích</t>
+          <t>hệ_thống quản_lý_tài_nguyên_phát_triển tính_năng hạn_ngạch viết unittest chạy thử_nghiệm tích_hợp_phần_mềm sử_dụng ngôn_ngữ khuôn khổkhung python django htmlcssjavascript công_cụ inject ui trách_nhiệm phát_triển tính_năng dựa yêu_cầu tài_liệu thiết_kế kh sửa lỗi cập_nhật tính_năng dựa phản_hồi khách_hàng chạy trường_hợp thử_nghiệm bằng_chứng ngôn_ngữ công_nghệ sử_dụng c net wpf htmlcssjavascript visualstudio python frontend htmlcss netc javascript giải_quyết vấn_đề làm_việc hòa đồng_phân_tích python frontend htmlcss netc javascript giải_quyết vấn_đề làm_việc hòa đồng_phân_tích</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>full stack developer tester doanh_nghiệp đức phát dự_án product mô_tả dự_án website quản_lý hàng điện phân_tích dữ_liệu viết api backendfrontend thiết_kế giao_diện dashboard database postgresql frontend html css javascript jquery java spring boot qatest fullstack</t>
+          <t>full stack developer tester doanh_nghiệp đức phát dự_án product mô_tả dự_án website quản_lý hàng điện phân_tích dữ_liệu viết api backendfrontend thiết_kế giao_diện dashboard database postgresql frontend html css javascript jquery java spring boot qatest fullstack qatest fullstack</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>nhân_viên php wordpress công_ty_tnhh mona media phân_tích dữ_liệu khách_hàng lập_trình_viên wordpress php quản_trị website viết nội_dung hỗ_trợ khách_hàng dự_án thực_hiện_tại công_ty mona media nhân_viên lập_trình quản_lý website oh bệnh_viện đa_khoa bỏ_túi tìm_hiểu code trang chức_năng dich vụ sức_khoẻ website lập_trình website fontend backend thực_hiện landing page website freelance dự_án fontend backend tiềm reactjs thực_hiện projects công_ty php frontend htmlcss quản_trị hệ_thống</t>
+          <t>nhân_viên php wordpress công_ty_tnhh mona media phân_tích dữ_liệu khách_hàng lập_trình_viên wordpress php quản_trị website viết nội_dung hỗ_trợ khách_hàng dự_án thực_hiện_tại công_ty mona media nhân_viên lập_trình quản_lý website oh bệnh_viện đa_khoa bỏ_túi tìm_hiểu code trang chức_năng dich vụ sức_khoẻ website lập_trình website fontend backend thực_hiện landing page website freelance dự_án fontend backend tiềm reactjs thực_hiện projects công_ty php frontend htmlcss quản_trị hệ_thống php frontend htmlcss quản_trị hệ_thống</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>net developer fpt software làm_việc utop nền_tảng thanh_toán tiền_mặt phép tiêu_dùng tích_lũy cửa_hàng nhà_hàng trách_nhiệm tích_hợp zalo hệ_thống chăm_sóc khách_hàng utop net developer nashtech web quản_lý_tài_sản công_ty xây_dựng thành_phần giao_diện quan_trọng react tối_ưu_hóa phần_phụ_trợ api rest net chúng_tôi scrum git netc aspnet uiux cntt phần_mềm thiết_kế quản_lý thời_gian làm_việc kế_hoạch</t>
+          <t>net developer fpt software làm_việc utop nền_tảng thanh_toán tiền_mặt phép tiêu_dùng tích_lũy cửa_hàng nhà_hàng trách_nhiệm tích_hợp zalo hệ_thống chăm_sóc khách_hàng utop net developer nashtech web quản_lý_tài_sản công_ty xây_dựng thành_phần giao_diện quan_trọng react tối_ưu_hóa phần_phụ_trợ api rest net chúng_tôi scrum git netc aspnet uiux cntt phần_mềm thiết_kế quản_lý thời_gian làm_việc kế_hoạch netc aspnet uiux cntt phần_mềm thiết_kế quản_lý thời_gian làm_việc kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>android fresher gmozcom runsystem jsc ứng_dụng downloadmanager ứng_dụng viết java android phép tải đồng_thời hát video nhaccuatui dailymotion android developer aseantech team ứng_dụng team team lead ứng_dụng viết java android sử_dụng thư_viện ocr textrecognition api phép chụp ảnh tài_liệu nhận_diện chữ file pdf android java triển_khai phần_mềm giao_tiếp làm_việc</t>
+          <t>android fresher gmozcom runsystem jsc ứng_dụng downloadmanager ứng_dụng viết java android phép tải đồng_thời hát video nhaccuatui dailymotion android developer aseantech team ứng_dụng team team lead ứng_dụng viết java android sử_dụng thư_viện ocr textrecognition api phép chụp ảnh tài_liệu nhận_diện chữ file pdf android java triển_khai phần_mềm giao_tiếp làm_việc android java triển_khai phần_mềm giao_tiếp làm_việc</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>head of information technology department an technique service joint stock company quản_lý hệ_thống_thiết_bị it thiết_bị máy_tính phần_mềm công_ty thiết_kế website công_ty seo website nâng_cấp phát_triển phần_mềm erp phát_triển phần_mềm dự_án khách_hàng nhà_máy hệ_thống scada andon quản_lý sản_xuất mes software developer maritime informatic and technollogy joint stock company lập_trình hệ_thống phần_mềm quản_trị erp net mssql thiết_kế website nhu_cầu khách_hàng aspnet netc fullstack quản_lý dự_án it triển_khai phần_mềm kỹ_sư cầu_nối it support quản_trị hệ_thống</t>
+          <t>head of information technology department an technique service joint stock company quản_lý hệ_thống_thiết_bị it thiết_bị máy_tính phần_mềm công_ty thiết_kế website công_ty seo website nâng_cấp phát_triển phần_mềm erp phát_triển phần_mềm dự_án khách_hàng nhà_máy hệ_thống scada andon quản_lý sản_xuất mes software developer maritime informatic and technollogy joint stock company lập_trình hệ_thống phần_mềm quản_trị erp net mssql thiết_kế website nhu_cầu khách_hàng aspnet netc fullstack quản_lý dự_án it triển_khai phần_mềm kỹ_sư cầu_nối it support quản_trị hệ_thống aspnet netc fullstack quản_lý dự_án it triển_khai phần_mềm kỹ_sư cầu_nối it support quản_trị hệ_thống</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>fresher javascript fpt software thiết_kế web framework angular frontend htmlcss sql javascript hòa năng_động kế_hoạch làm_việc</t>
+          <t>fresher javascript fpt software thiết_kế web framework angular frontend htmlcss sql javascript hòa năng_động kế_hoạch làm_việc frontend htmlcss sql javascript hòa năng_động kế_hoạch làm_việc</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>lập_trình python freelancer trực_tiếp lập_trình_viên xây_dựng phần_mềm khách_hàng python cc ruby sql thuyết_trình làm_việc giải_quyết vấn_đề quản_lý thời_gian hòa</t>
+          <t>lập_trình python freelancer trực_tiếp lập_trình_viên xây_dựng phần_mềm khách_hàng python cc ruby sql thuyết_trình làm_việc giải_quyết vấn_đề quản_lý thời_gian hòa python cc ruby sql thuyết_trình làm_việc giải_quyết vấn_đề quản_lý thời_gian hòa</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>công_ty cổ_phần codegym việt nam nodejs hiện_tại nodejs reactjs developer website thuê nodejs developer công_ty cổ_phần codegym việt nam công_nghệ reactjs redux expressjs mongodbtailwind css restfulapijwt agile scrum firebase thiết_kế ui hiện_tại công_ty cổ_phần codegym việt nam nodejs developer dự_án blog công_nghệ html css js bootstrap nodejs mysql thiết_kế giao_diện thiết_kế csdl nodejs javascript</t>
+          <t>công_ty cổ_phần codegym việt nam nodejs hiện_tại nodejs reactjs developer website thuê nodejs developer công_ty cổ_phần codegym việt nam công_nghệ reactjs redux expressjs mongodbtailwind css restfulapijwt agile scrum firebase thiết_kế ui hiện_tại công_ty cổ_phần codegym việt nam nodejs developer dự_án blog công_nghệ html css js bootstrap nodejs mysql thiết_kế giao_diện thiết_kế csdl nodejs javascript nodejs javascript</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>xây_dựng website hàng thương_mại điện_tử reactjsredux xây_dựng trang_web thương_mại điện_tử xây_dựng hệ_thống quản_lý admin xây_dựng website client ant design scss react js redux toolkit xây_dựng hệ_thống quản_lý big data xây_dựng hệ_thống ngân_hàng sumika xây_dựng website client html scss reactjs redux xử_lý nghiệp_vụ xây hệ_thống vận_hành ngân_hàng reactjs redux</t>
+          <t>xây_dựng website hàng thương_mại điện_tử reactjsredux xây_dựng trang_web thương_mại điện_tử xây_dựng hệ_thống quản_lý admin xây_dựng website client ant design scss react js redux toolkit xây_dựng hệ_thống quản_lý big data xây_dựng hệ_thống ngân_hàng sumika xây_dựng website client html scss reactjs redux xử_lý nghiệp_vụ xây hệ_thống vận_hành ngân_hàng reactjs redux reactjs redux</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>it suppervisor tekcom company trách_nhiệm cấu_hình cisco router and switch cyberoam firewall quản_lý window server ad dhcp dns tiếp_nhận yêu_cầu bộ_phận phát_triển ứng_dụng desktop web app c winform asp cơ_sở dữ_liệu mssql backup and restore stored procedure function trigger it operator and software developer evatech group chúng_tôi trách_nhiệm vận_hành hệ_thống sản_xuất kho vận_hành hoạt_động hoàn_hảo thông_suốt tiếp_nhận yêu_cầu bộ_phận phát_triển ứng_dụng desktop web app c winform asp cơ_sở dữ_liệu mssql triển_khai phần_mềm quản_trị hệ_thống quản_trị</t>
+          <t>it suppervisor tekcom company trách_nhiệm cấu_hình cisco router and switch cyberoam firewall quản_lý window server ad dhcp dns tiếp_nhận yêu_cầu bộ_phận phát_triển ứng_dụng desktop web app c winform asp cơ_sở dữ_liệu mssql backup and restore stored procedure function trigger it operator and software developer evatech group chúng_tôi trách_nhiệm vận_hành hệ_thống sản_xuất kho vận_hành hoạt_động hoàn_hảo thông_suốt tiếp_nhận yêu_cầu bộ_phận phát_triển ứng_dụng desktop web app c winform asp cơ_sở dữ_liệu mssql triển_khai phần_mềm quản_trị hệ_thống quản_trị triển_khai phần_mềm quản_trị hệ_thống quản_trị</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>học_vấn fpt aptech fpt aptech lập_trình_viên front end phát_triển website quản_lý cơ_sở dữ_liệu frontend htmlcss</t>
+          <t>học_vấn fpt aptech fpt aptech lập_trình_viên front end phát_triển website quản_lý cơ_sở dữ_liệu frontend htmlcss frontend htmlcss</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>học_viên cybersoft academy back end nodejs learn backend nodejs reactjs developer tham_gia xây_dựng cms cabx frontend htmlcss javascript backend nodejs sql làm_việc phân_tích quản_lý thời_gian</t>
+          <t>học_viên cybersoft academy back end nodejs learn backend nodejs reactjs developer tham_gia xây_dựng cms cabx frontend htmlcss javascript backend nodejs sql làm_việc phân_tích quản_lý thời_gian frontend htmlcss javascript backend nodejs sql làm_việc phân_tích quản_lý thời_gian</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>nhân_viên phát_triển thời_gian công_ty_tnhh divineshop bảo_trì website sửa lỗi viết tính_năng yêu_cầu khách_hàng opencart cms fuel framework cronjob git redis làm_việc cổng thanh_toán việt nam ngânlượng kim vtc momo full time developer staff dato solution coltd sửa lỗi bảo_trì hệ_thống công_ty viết sử_dụng php viết framework thiết_kế cơ_sở dữ_liệu hệ_thống lớntùy chỉnh truy sql tối_ưu_hóa hiệu_suất sử_dụng svn netc quản_trị javascript cc php</t>
+          <t>nhân_viên phát_triển thời_gian công_ty_tnhh divineshop bảo_trì website sửa lỗi viết tính_năng yêu_cầu khách_hàng opencart cms fuel framework cronjob git redis làm_việc cổng thanh_toán việt nam ngânlượng kim vtc momo full time developer staff dato solution coltd sửa lỗi bảo_trì hệ_thống công_ty viết sử_dụng php viết framework thiết_kế cơ_sở dữ_liệu hệ_thống lớntùy chỉnh truy sql tối_ưu_hóa hiệu_suất sử_dụng svn netc quản_trị javascript cc php netc quản_trị javascript cc php</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>nhân_viên kỹ_thuật bigapptech trách_nhiệm cập nhập phần_mềm quản_lý phần_mềm công_ty kinh_doanh spa gym quản_lý kho nhân_viên it bệnh_viện tân_bình hổ sử_dụng phần_mềm quản_lý bệnh_viện sửa_chữa phần_mềm phát_sinh lỗi lập_trình website bệnh_viện lập_trình ứng_dụng code tool hổ công_việc bệnh việntrích lọc liệubáo cáo quản_lý sản_phẩm quản_lý dự_án it android cc aspnet sql phần_cứng máy tínhđiện thoại oracle it support quản_trị netc thuyết_trình giao_tiếp làm_việc năng_động quản_lý thời_gian giải_quyết vấn_đề đàm_phán lãnh_đạo phân_tích hòa xây_dựng quan_hệ kế_hoạch</t>
+          <t>nhân_viên kỹ_thuật bigapptech trách_nhiệm cập nhập phần_mềm quản_lý phần_mềm công_ty kinh_doanh spa gym quản_lý kho nhân_viên it bệnh_viện tân_bình hổ sử_dụng phần_mềm quản_lý bệnh_viện sửa_chữa phần_mềm phát_sinh lỗi lập_trình website bệnh_viện lập_trình ứng_dụng code tool hổ công_việc bệnh việntrích lọc liệubáo cáo quản_lý sản_phẩm quản_lý dự_án it android cc aspnet sql phần_cứng máy tínhđiện thoại oracle it support quản_trị netc thuyết_trình giao_tiếp làm_việc năng_động quản_lý thời_gian giải_quyết vấn_đề đàm_phán lãnh_đạo phân_tích hòa xây_dựng quan_hệ kế_hoạch quản_lý sản_phẩm quản_lý dự_án it android cc aspnet sql phần_cứng máy tínhđiện thoại oracle it support quản_trị netc thuyết_trình giao_tiếp làm_việc năng_động quản_lý thời_gian giải_quyết vấn_đề đàm_phán lãnh_đạo phân_tích hòa xây_dựng quan_hệ kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>nhân_viên triển_khai phần_mềm công_ty cổ_phần đầu_tư công_nghệ intecom lập_trình ứng_dụng phần_mềm khai_thác cảng smart tos sử_dụng c entity framework linq sqlserver devexpress exe corp lập_trình_viên thiết_kế giao_diện website sử_dụng html css javascript netc triển_khai phần_mềm frontend htmlcss qatest sql làm_việc phân_tích giải_quyết vấn_đề thuyết_trình</t>
+          <t>nhân_viên triển_khai phần_mềm công_ty cổ_phần đầu_tư công_nghệ intecom lập_trình ứng_dụng phần_mềm khai_thác cảng smart tos sử_dụng c entity framework linq sqlserver devexpress exe corp lập_trình_viên thiết_kế giao_diện website sử_dụng html css javascript netc triển_khai phần_mềm frontend htmlcss qatest sql làm_việc phân_tích giải_quyết vấn_đề thuyết_trình netc triển_khai phần_mềm frontend htmlcss qatest sql làm_việc phân_tích giải_quyết vấn_đề thuyết_trình</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>lập_trình php educa group query api fix bug thiết_kế db laravel developper công_ty cổ_phần công_nghệ gvn tham_gia phát_triển website laravel framework java sql php javascript frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
+          <t>lập_trình php educa group query api fix bug thiết_kế db laravel developper công_ty cổ_phần công_nghệ gvn tham_gia phát_triển website laravel framework java sql php javascript frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa java sql php javascript frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>thực_tập java developer vnpt tìm_hiểu lập_trình web java spring boot angular thiết_kế sơ_đồ hệ_thống project thiết_kế website vé kiến_thức cơ_bản java core kiến_thức oop java tìm_hiểu java string đa_luồng java jdbc java servlet java collections hoàn_thành web hàng kết_hợp java spring boot angular mysql database php developer hoàn_thành web api hàng kết_hợp laravel vuejs cơ_sở dữ_liệu mysql hướng_dẫn tham_gia phát_triển web quản_lý thiết_bị y_tế java javascript chăm_sóc khách_hàng kế_toán tổng_hợp</t>
+          <t>thực_tập java developer vnpt tìm_hiểu lập_trình web java spring boot angular thiết_kế sơ_đồ hệ_thống project thiết_kế website vé kiến_thức cơ_bản java core kiến_thức oop java tìm_hiểu java string đa_luồng java jdbc java servlet java collections hoàn_thành web hàng kết_hợp java spring boot angular mysql database php developer hoàn_thành web api hàng kết_hợp laravel vuejs cơ_sở dữ_liệu mysql hướng_dẫn tham_gia phát_triển web quản_lý thiết_bị y_tế java javascript chăm_sóc khách_hàng kế_toán tổng_hợp java javascript chăm_sóc khách_hàng kế_toán tổng_hợp</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>kỹ_thuật_viên lập_trình_viên công_ty_cp phần_mềm kế_toán thuế việt namvmsoft hỗ_trợ lập_trình kiểm_thử dự_án thực_tế thiết_kế giao_diện phát_triển chức_năng công_nghệ sử_dụng mvc sql server xây_dựng dự_án cá_nhân phần_mềm nhà_hàng công_nghệ sử_dụng winform entity framework linq sql server php frontend htmlcss</t>
+          <t>kỹ_thuật_viên lập_trình_viên công_ty_cp phần_mềm kế_toán thuế việt namvmsoft hỗ_trợ lập_trình kiểm_thử dự_án thực_tế thiết_kế giao_diện phát_triển chức_năng công_nghệ sử_dụng mvc sql server xây_dựng dự_án cá_nhân phần_mềm nhà_hàng công_nghệ sử_dụng winform entity framework linq sql server php frontend htmlcss php frontend htmlcss</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>fresher uiux công_ty_tnhh rikkeisoft quá_trình học_tập designing web interface nhu_cầu khách_hàng việc_làm liên_quan designing uiux intern ui ux vnedu chuyên layout landing page sản_phẩm web trường_học công_cụ học_tập thiết_kế sản_phẩm uiux frontend htmlcss</t>
+          <t>fresher uiux công_ty_tnhh rikkeisoft quá_trình học_tập designing web interface nhu_cầu khách_hàng việc_làm liên_quan designing uiux intern ui ux vnedu chuyên layout landing page sản_phẩm web trường_học công_cụ học_tập thiết_kế sản_phẩm uiux frontend htmlcss thiết_kế sản_phẩm uiux frontend htmlcss</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>thực_tập_sinh côngtyadm tìm_hiểu viết ứng_dụng android tích_hợp chức_năng thanh_toán google android studio kotlin quá_trình thực_tập đánh_giá tích_cực quản_lý lập_trình_viên fmmusic mô_tả ứng_dụng ứng_dụng nhạc online ofﬂine nhệ sử_dụng android nodejs</t>
+          <t>thực_tập_sinh côngtyadm tìm_hiểu viết ứng_dụng android tích_hợp chức_năng thanh_toán google android studio kotlin quá_trình thực_tập đánh_giá tích_cực quản_lý lập_trình_viên fmmusic mô_tả ứng_dụng ứng_dụng nhạc online ofﬂine nhệ sử_dụng android nodejs android nodejs</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>technical leader developer tafico phân_tích tài_liệu yêu_cầu thiết_kế cơ_sở dữ_liệu sử_dụng spring data jpa code backend hỗ_trợ thành_viên spring rest api spring data jpa spring sercurity mariadb frontend reactjs react servlet struts hibernate mysql technical leader tafico hitachi vantara customer tái_cấu_trúc cập_nhật cấu_trúc dự_án viết mã test đào_tạo java jpa ireport hibersap swing một_số thành_viên triển_khai phần_mềm java php netc sql data analytics cc thiết_kế an_ninh</t>
+          <t>technical leader developer tafico phân_tích tài_liệu yêu_cầu thiết_kế cơ_sở dữ_liệu sử_dụng spring data jpa code backend hỗ_trợ thành_viên spring rest api spring data jpa spring sercurity mariadb frontend reactjs react servlet struts hibernate mysql technical leader tafico hitachi vantara customer tái_cấu_trúc cập_nhật cấu_trúc dự_án viết mã test đào_tạo java jpa ireport hibersap swing một_số thành_viên triển_khai phần_mềm java php netc sql data analytics cc thiết_kế an_ninh triển_khai phần_mềm java php netc sql data analytics cc thiết_kế an_ninh</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>công_ty octa lập_trình_viên frontend backend tham_gia phát_triển sản_phẩm mai điện_tử thảo_luận đội_ngũ backend thiết_kế api it support frontend htmlcss php uiux java javascript sql làm_việc thuyết_trình giao_tiếp</t>
+          <t>công_ty octa lập_trình_viên frontend backend tham_gia phát_triển sản_phẩm mai điện_tử thảo_luận đội_ngũ backend thiết_kế api it support frontend htmlcss php uiux java javascript sql làm_việc thuyết_trình giao_tiếp it support frontend htmlcss php uiux java javascript sql làm_việc thuyết_trình giao_tiếp</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>data engineer mobifone it trách_nhiệm thu_thập dữ_liệu tối_ưu_hóa hệ_thống phân_tích dữ_liệu etl trích tải chuyển_đổi developer data engineer công_ty cổ_phần công_nghệ novaon big datahadoop python sql</t>
+          <t>data engineer mobifone it trách_nhiệm thu_thập dữ_liệu tối_ưu_hóa hệ_thống phân_tích dữ_liệu etl trích tải chuyển_đổi developer data engineer công_ty cổ_phần công_nghệ novaon big datahadoop python sql big datahadoop python sql</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>thực_tập_sinh c công_ty cp viễn_thông fptfpt telecom cửa_hàng quần_áo clothes thiết_kế trang_web tài_liệu mô_tả_thực_hiện chuyển_giao_diện mvc blazor mudblazor sql server restapi crud jwt smtp mail shoppng web asp net mvc entity framework htmlcss adonet đăng_nhập đăng_ký quên mật_khẩu giỏ hàng thống_kê sản_phẩm khách_hàng lập_trình_viên windows application công_ty cp erp việt diginet kết_hợp tester phát_triển chức_năng mô_tả khách_hàng quản_lý một_số module hệ_thống erp tìm_hiểu công_nghệ có_thể kết_hợp hiệu_suất phần_mềm netc sql</t>
+          <t>thực_tập_sinh c công_ty cp viễn_thông fptfpt telecom cửa_hàng quần_áo clothes thiết_kế trang_web tài_liệu mô_tả_thực_hiện chuyển_giao_diện mvc blazor mudblazor sql server restapi crud jwt smtp mail shoppng web asp net mvc entity framework htmlcss adonet đăng_nhập đăng_ký quên mật_khẩu giỏ hàng thống_kê sản_phẩm khách_hàng lập_trình_viên windows application công_ty cp erp việt diginet kết_hợp tester phát_triển chức_năng mô_tả khách_hàng quản_lý một_số module hệ_thống erp tìm_hiểu công_nghệ có_thể kết_hợp hiệu_suất phần_mềm netc sql netc sql</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>developer and system administrator mekong data mkd phát_triển website drupal bootstrap phát_triển trang_web thương_mại sử_dụng magento nghiên_cứu uiux thiết_kế quản_lý cơ_sở dữ_liệu triển_khai mã amazon web services tích_hợp elaticsearch phát_triển module odoo parttime staff can tho university software center cusc website phép tra_cứu dữ_liệu gạo bootstrap jquery laravel php javascript java quản_trị quản_trị hệ_thống netc</t>
+          <t>developer and system administrator mekong data mkd phát_triển website drupal bootstrap phát_triển trang_web thương_mại sử_dụng magento nghiên_cứu uiux thiết_kế quản_lý cơ_sở dữ_liệu triển_khai mã amazon web services tích_hợp elaticsearch phát_triển module odoo parttime staff can tho university software center cusc website phép tra_cứu dữ_liệu gạo bootstrap jquery laravel php javascript java quản_trị quản_trị hệ_thống netc php javascript java quản_trị quản_trị hệ_thống netc</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>công_ty cổ_phần tập_đoàn itp group app giao wework sử_dụng reactjs hook mysql laravel đảm_nhiệm leader website theo_dõi giá_cả tiền điện_tử crypto sử_dụng reactjs hook mongodb nodejs expressjs api sàn coinkecgo mã_hóa hình_ảnh responsive chức_năng cụ_thể theo_dõi chart coin kyc coin swap coin công_ty cổ_phần công_nghệ quốc_tế vna group hệ_thống beta đánh_giá chất_lượng giảng_dạy giáo_viên sử_dụng reactjs mongodb nestjs đảm_nhận leader triển_khai kế_hoạch team báo_cáo crud cụ_thể page admin hiệu_trưởng phụ_huynh reactjs nodejs</t>
+          <t>công_ty cổ_phần tập_đoàn itp group app giao wework sử_dụng reactjs hook mysql laravel đảm_nhiệm leader website theo_dõi giá_cả tiền điện_tử crypto sử_dụng reactjs hook mongodb nodejs expressjs api sàn coinkecgo mã_hóa hình_ảnh responsive chức_năng cụ_thể theo_dõi chart coin kyc coin swap coin công_ty cổ_phần công_nghệ quốc_tế vna group hệ_thống beta đánh_giá chất_lượng giảng_dạy giáo_viên sử_dụng reactjs mongodb nestjs đảm_nhận leader triển_khai kế_hoạch team báo_cáo crud cụ_thể page admin hiệu_trưởng phụ_huynh reactjs nodejs reactjs nodejs</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ích đông lập_trình_viên php lập_trình php lập_trình_viên php mã laravel tìm_hiểu htmlcss cơ_bản htmlcss dự_án dựng sẵn figmaphotoshop xử_lý trang_web code sẵn framework laravel google adsadwords facebook ads frontend htmlcss làm_việc</t>
+          <t>ích đông lập_trình_viên php lập_trình php lập_trình_viên php mã laravel tìm_hiểu htmlcss cơ_bản htmlcss dự_án dựng sẵn figmaphotoshop xử_lý trang_web code sẵn framework laravel google adsadwords facebook ads frontend htmlcss làm_việc google adsadwords facebook ads frontend htmlcss làm_việc</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>intern frontend group tham_gia xây_dựng website công_ty sử_dụng reactjs materialui chuyển_đổi figma htmlcss chỉnh_sửa cập_nhật giao_diện website yêu_cầu khách_hàng frontend htmlcss javascript quản_lý thời_gian giao_tiếp làm_việc giải_quyết vấn_đề kế_hoạch</t>
+          <t>intern frontend group tham_gia xây_dựng website công_ty sử_dụng reactjs materialui chuyển_đổi figma htmlcss chỉnh_sửa cập_nhật giao_diện website yêu_cầu khách_hàng frontend htmlcss javascript quản_lý thời_gian giao_tiếp làm_việc giải_quyết vấn_đề kế_hoạch frontend htmlcss javascript quản_lý thời_gian giao_tiếp làm_việc giải_quyết vấn_đề kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>side project website to chat simple dự_án cá_nhân đơn_giản sử_dụng mvc template handlebars kết_hợp socket io công_nghệ nodejs socket io jquery postgresql nodejs postgresql</t>
+          <t>side project website to chat simple dự_án cá_nhân đơn_giản sử_dụng mvc template handlebars kết_hợp socket io công_nghệ nodejs socket io jquery postgresql nodejs postgresql nodejs postgresql</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>php developer công_ty cổ_phần tổng_hợp việt nhật vinicorp tham_gia xây_dựng phát_triển ứng_dụng web công_ty sử_dụng php mysql framework cake php công_ty cổ_phần thương_mại hảo seoer visual basic c lập_trình tool giúp tự_động hóa một_số quá_trình seo giúp hiệu_quả công_việc quản_lý hệ_thống website công_ty đảm_bảo website hoạt_động ổn_định thiết_kế chỉnh_sửa hình_ảnh sản_phẩm logo banner nội_dung quản_trị frontend htmlcss php javascript</t>
+          <t>php developer công_ty cổ_phần tổng_hợp việt nhật vinicorp tham_gia xây_dựng phát_triển ứng_dụng web công_ty sử_dụng php mysql framework cake php công_ty cổ_phần thương_mại hảo seoer visual basic c lập_trình tool giúp tự_động hóa một_số quá_trình seo giúp hiệu_quả công_việc quản_lý hệ_thống website công_ty đảm_bảo website hoạt_động ổn_định thiết_kế chỉnh_sửa hình_ảnh sản_phẩm logo banner nội_dung quản_trị frontend htmlcss php javascript nội_dung quản_trị frontend htmlcss php javascript</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>lập_trình_viên công_ty cổ_phần tài_chính việt phân_tích thiết_kế hệ_thống lập_trình php framework laravel ci thiết_kế báo_cáo tài_chính hệ_thống vận_hành quản_lý hệ_thống fintech tài_chính git base quản_lý contact hợp_đồng công_thức thanh_toán toán lãi đầu_tư khách_hàng kết_nối cổng thanh_toán thanh_toán tự_động đầu_tư giải_ngân khách_hàng hỗ_trợ phòng_ban liên_quan liên_kết đối_tác hợp_tác bảo_hiểm cổng thanh_toán lập_trình_viên công_ty apaxenglish phân_tích thiết_kế hệ_thống lập_trình php framework laravel vuejs nodejs thiết_kế báo_cáo hệ_thống crm sử_dụng stress test cache index tối_ưu lozic code hệ_thống vận_hành ổn_định giật lác hỗ_trợ khách_hàng sử_dụng hệ_thống kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
+          <t>lập_trình_viên công_ty cổ_phần tài_chính việt phân_tích thiết_kế hệ_thống lập_trình php framework laravel ci thiết_kế báo_cáo tài_chính hệ_thống vận_hành quản_lý hệ_thống fintech tài_chính git base quản_lý contact hợp_đồng công_thức thanh_toán toán lãi đầu_tư khách_hàng kết_nối cổng thanh_toán thanh_toán tự_động đầu_tư giải_ngân khách_hàng hỗ_trợ phòng_ban liên_quan liên_kết đối_tác hợp_tác bảo_hiểm cổng thanh_toán lập_trình_viên công_ty apaxenglish phân_tích thiết_kế hệ_thống lập_trình php framework laravel vuejs nodejs thiết_kế báo_cáo hệ_thống crm sử_dụng stress test cache index tối_ưu lozic code hệ_thống vận_hành ổn_định giật lác hỗ_trợ khách_hàng sử_dụng hệ_thống kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>mern stack project web chăm_sóc sức_khỏe sử_dụng reactjs nodejs express mongodb chủ_yếu reactjs giao_diện một_số xác_thực jwt aws cloud foundation tham_gia khóa học cloud computingchủ yếu triển_khai trang_web aws google cloud lambda buckets dịch_vụ reactjs nodejs kế_hoạch</t>
+          <t>mern stack project web chăm_sóc sức_khỏe sử_dụng reactjs nodejs express mongodb chủ_yếu reactjs giao_diện một_số xác_thực jwt aws cloud foundation tham_gia khóa học cloud computingchủ yếu triển_khai trang_web aws google cloud lambda buckets dịch_vụ reactjs nodejs kế_hoạch reactjs nodejs kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>mobile developer fpt software co ltd tham_gia dự_án react native triển_khai app quản_lý kho xăng ứng_dụng giao_tiếp chủ_khách_sạn nhà_nghỉ homestay xây_dựng thiết_kế mã giao_diện tính_năng sạch mã tối_ưu_hóa hiệu_suất nghiên_cứu ứng_dụng công_nghệ dự_án tham_gia viết code mẫu công_ty tích_hợp sdk công_ty làm_việc quy_trình phát_triển agilescrum thành_tích kỹ_năng lập_trình mobile fpt software tiếp_nhận thông_tin trực_tiếp khách_hàng bàn_luận team phát_triển sản_phẩm quản_lý trực_tiếp pm ios android quản_lý thời_gian năng_động phân_tích làm_việc</t>
+          <t>mobile developer fpt software co ltd tham_gia dự_án react native triển_khai app quản_lý kho xăng ứng_dụng giao_tiếp chủ_khách_sạn nhà_nghỉ homestay xây_dựng thiết_kế mã giao_diện tính_năng sạch mã tối_ưu_hóa hiệu_suất nghiên_cứu ứng_dụng công_nghệ dự_án tham_gia viết code mẫu công_ty tích_hợp sdk công_ty làm_việc quy_trình phát_triển agilescrum thành_tích kỹ_năng lập_trình mobile fpt software tiếp_nhận thông_tin trực_tiếp khách_hàng bàn_luận team phát_triển sản_phẩm quản_lý trực_tiếp pm ios android quản_lý thời_gian năng_động phân_tích làm_việc ios android quản_lý thời_gian năng_động phân_tích làm_việc</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>developer digiwin software jsc tính_năng chỉnh_sửa ứng_dụng erp chỉnh_sửa giao_diện cập_nhật phiên_bản erp cũ khách_hàng phiên_bản triển_khai phần_mềm netc java</t>
+          <t>developer digiwin software jsc tính_năng chỉnh_sửa ứng_dụng erp chỉnh_sửa giao_diện cập_nhật phiên_bản erp cũ khách_hàng phiên_bản triển_khai phần_mềm netc java triển_khai phần_mềm netc java</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>lập_trình web wordpress công_ty truyền_thông icolor htmlcss file psd xây_dựng website giao_diện thiết_kế nền_tảng wordpress hỗ_trợ chỉnh_sửa nâng_cấp website yêu_cầu khách_hàng hoàn_thành dự_án website php javascript backend frontend htmlcss frontend htmlcss sql java sql năng_động quản_lý thời_gian giao_tiếp giải_quyết vấn_đề làm_việc lãnh_đạo hòa xây_dựng quan_hệ kế_hoạch</t>
+          <t>lập_trình web wordpress công_ty truyền_thông icolor htmlcss file psd xây_dựng website giao_diện thiết_kế nền_tảng wordpress hỗ_trợ chỉnh_sửa nâng_cấp website yêu_cầu khách_hàng hoàn_thành dự_án website php javascript backend frontend htmlcss frontend htmlcss sql java sql năng_động quản_lý thời_gian giao_tiếp giải_quyết vấn_đề làm_việc lãnh_đạo hòa xây_dựng quan_hệ kế_hoạch php javascript backend frontend htmlcss frontend htmlcss sql java sql năng_động quản_lý thời_gian giao_tiếp giải_quyết vấn_đề làm_việc lãnh_đạo hòa xây_dựng quan_hệ kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
+          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>mobile developer cty ptpm quang bảo_trì nâng_cấp dự_án react native cũ tham_gia phát_triển sản_phẩm outsource công_ty javascript ios android</t>
+          <t>mobile developer cty ptpm quang bảo_trì nâng_cấp dự_án react native cũ tham_gia phát_triển sản_phẩm outsource công_ty javascript ios android javascript ios android</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>full stack developer nfq asia xây_dựng website frontend backend công_nghệ symfony aws react redux cloudflare vv selfprojects nhận_dạng hoa sử_dụng thần_kinh tích chính_quy_hóa học tăng_cường dữ_liệu mini batch độ dốc tổng_hợp tối_đa dự_đoán cà_phê long short mô_hình bộ_nhớ hạn phân_rã tỷ_lệ học_tập mini batch độ dốc chuẩn_hóa phát_triển python ferrous design freelancer xử_lý quản_lý dữ_liệu email mục_đích khoa_học dữ_liệu fullstack nodejs</t>
+          <t>full stack developer nfq asia xây_dựng website frontend backend công_nghệ symfony aws react redux cloudflare vv selfprojects nhận_dạng hoa sử_dụng thần_kinh tích chính_quy_hóa học tăng_cường dữ_liệu mini batch độ dốc tổng_hợp tối_đa dự_đoán cà_phê long short mô_hình bộ_nhớ hạn phân_rã tỷ_lệ học_tập mini batch độ dốc chuẩn_hóa phát_triển python ferrous design freelancer xử_lý quản_lý dữ_liệu email mục_đích khoa_học dữ_liệu fullstack nodejs fullstack nodejs</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>freelancer team mobile flutter flutter skills phát_triển apps sử_dụng bloc state management firebase adobe xd internship dat viet software company học java web spring core đọc nghiêng cứu tài_liệu backend python ios android thiết_kế thiết_kế netc frontend htmlcss cntt phần_mềm</t>
+          <t>freelancer team mobile flutter flutter skills phát_triển apps sử_dụng bloc state management firebase adobe xd internship dat viet software company học java web spring core đọc nghiêng cứu tài_liệu backend python ios android thiết_kế thiết_kế netc frontend htmlcss cntt phần_mềm backend python ios android thiết_kế thiết_kế netc frontend htmlcss cntt phần_mềm</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>weather prediction developer biometrics project thu_thập dữ_liệu api web xử_lý dữ_liệu đào_tạo dữ_liệu một_số mô_hình máy học quản_lý dự_án it netc java python</t>
+          <t>weather prediction developer biometrics project thu_thập dữ_liệu api web xử_lý dữ_liệu đào_tạo dữ_liệu một_số mô_hình máy học quản_lý dự_án it netc java python quản_lý dự_án it netc java python</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>data analyst mb bank sql developer bravo sql triển_khai phần_mềm data warehouse cntt phần_mềm</t>
+          <t>data analyst mb bank sql developer bravo sql triển_khai phần_mềm data warehouse cntt phần_mềm sql triển_khai phần_mềm data warehouse cntt phần_mềm</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>nashtech viet nam tham_gia the rookies program nashtech vị_trí java back end chương_trình thành_tích cố vấnhuấn luyện_viên đánh_giá netc frontend htmlcss</t>
+          <t>nashtech viet nam tham_gia the rookies program nashtech vị_trí java back end chương_trình thành_tích cố vấnhuấn luyện_viên đánh_giá netc frontend htmlcss netc frontend htmlcss</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>reactjs trang vé phim công_nghệ sử_dụng user template scss boostrap admin reactjs aspnet core api aspnet core mvc net core react js aspnet</t>
+          <t>reactjs trang vé phim công_nghệ sử_dụng user template scss boostrap admin reactjs aspnet core api aspnet core mvc net core react js aspnet react js aspnet</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>thực_tập_sinh lập_trình_viên python cty_tnhh phần_mềm biwoco thông_tin nhà_đất trang bất_động_sản lưu database mysql api tìm_kiếm fastapi clean code python python javascript</t>
+          <t>thực_tập_sinh lập_trình_viên python cty_tnhh phần_mềm biwoco thông_tin nhà_đất trang bất_động_sản lưu database mysql api tìm_kiếm fastapi clean code python python javascript python javascript</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
+          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>front end developer nhat logistics front sử_dụng reactjs thư_viện redux ant design thiết_kế hệ_thống crm frontend htmlcss reactjs nodejs</t>
+          <t>front end developer nhat logistics front sử_dụng reactjs thư_viện redux ant design thiết_kế hệ_thống crm frontend htmlcss reactjs nodejs frontend htmlcss reactjs nodejs</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>nhân_viên lập_trình công_ty cổ_phần công_nghệ tầm thành_phố minh việt_nam lập_trình report sổ_sách thiết_kế entity form cài_đặt hổ khách_hàng quá_trình sử_dụng phần_mềm sử_dụng công_nghệ net viết vbnet tham_gia dự_án erp phần_mềm kế_toán netc sql triển_khai phần_mềm chăm_sóc khách_hàng</t>
+          <t>nhân_viên lập_trình công_ty cổ_phần công_nghệ tầm thành_phố minh việt_nam lập_trình report sổ_sách thiết_kế entity form cài_đặt hổ khách_hàng quá_trình sử_dụng phần_mềm sử_dụng công_nghệ net viết vbnet tham_gia dự_án erp phần_mềm kế_toán netc sql triển_khai phần_mềm chăm_sóc khách_hàng netc sql triển_khai phần_mềm chăm_sóc khách_hàng</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
+          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>teacher assistant zalo associate data scientist associate data scientist xây_dựng hệ_thống ner cạnh_tranh sản_phẩm thương_mại xây_dựng phân_loại nội_dung khai_thác dữ_liệu sở_thích software engineering intern opswat vietnam phát_triển tính_năng dự_án deep cdr xây_dựng phát_hiện macro độc_hại phân_loại tệp pdf sql python netc aspnet trợ_giảng ngoại_ngữ</t>
+          <t>teacher assistant zalo associate data scientist associate data scientist xây_dựng hệ_thống ner cạnh_tranh sản_phẩm thương_mại xây_dựng phân_loại nội_dung khai_thác dữ_liệu sở_thích software engineering intern opswat vietnam phát_triển tính_năng dự_án deep cdr xây_dựng phát_hiện macro độc_hại phân_loại tệp pdf sql python netc aspnet trợ_giảng ngoại_ngữ sql python netc aspnet trợ_giảng ngoại_ngữ</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>qa automation tester tma solutions thiết_kế thực_hiện trường_hợp thử_nghiệm thông_số kỹ_thuật theo_dõi quản_lý vòng đời đềlỗi hệ_thống theo_dõi thiết_kế thực_hiện kiểm_tra tự_động dựa trường_hợp kiểm_tra cải thiệncập nhật trường_hợp thử_nghiệm hiệu_quả độ tin_cậy cộng_tác phát_triển sản_phẩm cung_cấp phản_hồi hướng_dẫn thiết_lập chiến_lược thử_nghiệm qatest sql nghiên_cứu thị_trường data analytics java netc</t>
+          <t>qa automation tester tma solutions thiết_kế thực_hiện trường_hợp thử_nghiệm thông_số kỹ_thuật theo_dõi quản_lý vòng đời đềlỗi hệ_thống theo_dõi thiết_kế thực_hiện kiểm_tra tự_động dựa trường_hợp kiểm_tra cải thiệncập nhật trường_hợp thử_nghiệm hiệu_quả độ tin_cậy cộng_tác phát_triển sản_phẩm cung_cấp phản_hồi hướng_dẫn thiết_lập chiến_lược thử_nghiệm qatest sql nghiên_cứu thị_trường data analytics java netc qatest sql nghiên_cứu thị_trường data analytics java netc</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>nhân_viên lập_trình frontend ngân_hà tech kinh_nghiệm làm_việc yii framework backend php frontend htmlcss qatest javascript sql làm_việc giải_quyết vấn_đề hòa</t>
+          <t>nhân_viên lập_trình frontend ngân_hà tech kinh_nghiệm làm_việc yii framework backend php frontend htmlcss qatest javascript sql làm_việc giải_quyết vấn_đề hòa backend php frontend htmlcss qatest javascript sql làm_việc giải_quyết vấn_đề hòa</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>node js nodejs nodejs nodejs</t>
+          <t>node js nodejs nodejs nodejs nodejs nodejs</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>nodejs nodejs node js nodejs nodejs node js</t>
+          <t>nodejs nodejs node js nodejs nodejs node js nodejs nodejs node js</t>
         </is>
       </c>
     </row>
